--- a/pruebaprueba.xlsx
+++ b/pruebaprueba.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="18">
   <si>
     <t>Pos</t>
   </si>
@@ -47,16 +47,28 @@
     <t>Etapa 3</t>
   </si>
   <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
     <t> </t>
   </si>
   <si>
-    <t>NOT</t>
-  </si>
-  <si>
-    <t>N </t>
-  </si>
-  <si>
-    <t>Decision</t>
+    <t>     precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t>         -1       1.00      0.47      0.64       133</t>
+  </si>
+  <si>
+    <t>          0       0.59      1.00      0.75       173</t>
+  </si>
+  <si>
+    <t>          1       1.00      0.50      0.67        94</t>
+  </si>
+  <si>
+    <t>avg / total       0.82      0.70      0.69       400</t>
   </si>
 </sst>
 </file>
@@ -71,6 +83,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -92,12 +105,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -209,6 +224,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -226,10 +245,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C5:AC20"/>
+  <dimension ref="C5:AC55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14:Y14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -241,7 +260,8 @@
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.86224489795918"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.99489795918367"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.27551020408163"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="4.30102040816327"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.91836734693878"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.30102040816327"/>
     <col collapsed="false" hidden="false" max="17" min="15" style="0" width="4.58163265306122"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="3.74489795918367"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.86224489795918"/>
@@ -523,11 +543,6 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J13" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
         <v>0</v>
@@ -596,16 +611,16 @@
         <v>5</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,34 +658,34 @@
         <v>4</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z15" s="6" t="s">
         <v>6</v>
@@ -697,22 +712,22 @@
         <v>9</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>6</v>
@@ -745,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AA16" s="6" t="s">
         <v>6</v>
@@ -754,12 +769,12 @@
         <v>6</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>4</v>
@@ -810,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>6</v>
@@ -851,12 +866,6 @@
       </c>
       <c r="H19" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,6 +875,414 @@
       </c>
       <c r="H20" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T27" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U27" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S28" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <f aca="false">SUM(T28:V28)</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S29" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <f aca="false">SUM(T29:V29)</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <f aca="false">SUM(T30:V30)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M31" s="0" t="n">
+        <f aca="false">AVERAGE(M28:M30)</f>
+        <v>0.68</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <f aca="false">SUM(T28:T30)</f>
+        <v>33</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <f aca="false">SUM(U28:U30)</f>
+        <v>319</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <f aca="false">SUM(V28:V30)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O45" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M46" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <f aca="false">SUM(N46:P46)</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <f aca="false">SUM(N47:P47)</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <f aca="false">SUM(N48:P48)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N52" s="0" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N53" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N54" s="0" t="n">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N55" s="0" t="n">
+        <f aca="false">AVERAGE(N52:N54)</f>
+        <v>0.736666666666667</v>
       </c>
     </row>
   </sheetData>
